--- a/ExpenseSheet2017-2018.xlsx
+++ b/ExpenseSheet2017-2018.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Knowtefy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -57,13 +52,22 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Knowtefy DSC &amp; DIN</t>
+  </si>
+  <si>
+    <t>Rabindra (CA)</t>
+  </si>
+  <si>
+    <t>Cash Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,28 +402,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -445,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,17 +477,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42936</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -492,7 +513,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -502,7 +523,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -512,7 +533,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +543,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -532,7 +553,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/ExpenseSheet2017-2018.xlsx
+++ b/ExpenseSheet2017-2018.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Knowtefy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -52,22 +57,13 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Knowtefy DSC &amp; DIN</t>
-  </si>
-  <si>
-    <t>Rabindra (CA)</t>
-  </si>
-  <si>
-    <t>Cash Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,29 +398,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -450,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -477,33 +472,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42936</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -513,7 +492,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -523,7 +502,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -533,7 +512,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -543,7 +522,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -553,7 +532,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
